--- a/assets/disciplinas/LOM3037.xlsx
+++ b/assets/disciplinas/LOM3037.xlsx
@@ -133,7 +133,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4031 -  Química Geral I  (Requisito fraco)
+    <t xml:space="preserve">LOQ4100 -  Fundamentos de Química para Engenharia I (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3037.xlsx
+++ b/assets/disciplinas/LOM3037.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>-Capacitar o aluno a escrever e balancear reações químicas, mostrando os produtos esperados, para os elementos da tabela periódica e seus compostos.-Capacitar o aluno para relacionar as propriedades químicas e físicas dos elementos e seus compostos com suas posições na tabela periódica.-Capacitar o aluno a escrever os métodos de obtenção dos elementos e seus compostos, bem como descrever suas aplicações.</t>
+    <t>5840963 - Daniela Camargo Vernilli</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840963 - Daniela Camargo Vernilli</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>- Metais Representativos: Metais do Grupo 1, Metais do Grupo 2 e Metais do Grupo 13.- Metais de Transição: Propriedades gerais, Complexos.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>- Metais Representativos: Características gerais dos metais dos Grupos 1, 2 e 13.- Metais de transição: Introdução e Propriedades gerais, Complexos.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Duas provas bimestrais escritas (P1 e P2), cada uma valendo nota de 0,0  a 10,0.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MS= P1+P2/2, onde: MS= média do semestre.MS&gt; ou = 5,0 = Aluno AprovadoMS&lt; 3,0 = Aluno Reprovado3,0 &lt; ou = MS &lt; 5,0 = Aluno de Recuperação.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Estudo dirigido de todo o conteúdo da disciplina e uma prova (PR) valendo nota de 0,0 a 10,0, contendo todo o conteúdo da disciplina.O aluno será aprovado se apresentar (média final) MF &gt; ou = 5,0.Onde: MF= MS+PR/2, onde:  MS= média do semestre e PR= prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>- LEE, J. D. “Química Inorgânica não tão Concisa”, Editora Edgard Blücher, 1999.- SHRIVER, D. F.; ATKINS, P. W. “Química Inorgânica”, Editora Bookman, 4ª edição, 2008.- QUAGLIANO, J. V.; VALLARINO, L. “Química”, Editora Guanabara Koogan, 1973.- MELLOR, J. W. “Química Inorgânica Moderna”, Editora: Globo – Porto Alegre, 1967.- GREENWOOD, N. N.; EARNSHAW, A. “Chemistry of the Elements”, Butterworth Heinemann, 1997.- BUCHEL, K. H.; MORETTO, H. H.; WODITSCH, P. “Industrial Inorganic Chemistry”, Editora Wiley-VCH, 2000.- RAYNER-CANHAM, G.; OVERTON, T. “Química Inorgânica Descritiva”, Editora: Gen-LTC, 5ª edição, 2015.- SOUZA, M.M.V.M. “Processos Inorgânicos”, Editora: Synergia, 1ª edição, 2012.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3037.xlsx
+++ b/assets/disciplinas/LOM3037.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,24 +70,27 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>5840712 - Ângelo Capri Neto</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
     <t>5840963 - Daniela Camargo Vernilli</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -103,19 +106,19 @@
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas provas bimestrais escritas (P1 e P2), cada uma valendo nota de 0,0  a 10,0.</t>
+    <t>A avaliação tem como requisito quantificar as competências adquiridas conforme objetivadas.Duas provas escritas (P1 e P2) e listas de exercícios de acompanhamento continuado. A partir das notas das listas de exercício será calculada a média, LE.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MS= P1+P2/2, onde: MS= média do semestre.MS&gt; ou = 5,0 = Aluno AprovadoMS&lt; 3,0 = Aluno Reprovado3,0 &lt; ou = MS &lt; 5,0 = Aluno de Recuperação.</t>
+    <t>NF = (P1 + P2 + LE) /3</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Estudo dirigido de todo o conteúdo da disciplina e uma prova (PR) valendo nota de 0,0 a 10,0, contendo todo o conteúdo da disciplina.O aluno será aprovado se apresentar (média final) MF &gt; ou = 5,0.Onde: MF= MS+PR/2, onde:  MS= média do semestre e PR= prova de recuperação.</t>
+    <t>Será realizada uma prova escrita valendo de zero a dez (NR) e a média final calculada pela equação: NF + NR</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -608,10 +611,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
@@ -624,77 +627,77 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3037.xlsx
+++ b/assets/disciplinas/LOM3037.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,25 +70,37 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>- Capacitar o aluno para relacionar as propriedades químicas e físicas dos elementos e seus compostos com suas posições na tabela periódica.-Capacitar o aluno a escrever os métodos industriais de obtenção dos elementos e seus compostos, bem como descrever suas aplicações- capacitar o aluno a comunicar-se eficazmente nas formas escrita, oral e gráfica</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840712 - Ângelo Capri Neto</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5840963 - Daniela Camargo Vernilli</t>
+  </si>
+  <si>
+    <t>1922320 - Sebastiao Ribeiro</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>- Metais Representativos: Metais do Grupo 1, Metais do Grupo 2 e Metais do Grupo 13.- Metais de Transição: Propriedades gerais, Complexos.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>5840963 - Daniela Camargo Vernilli</t>
+    <t>Metais e compostos dos grupos 1, 2, 13 e de transição da Tabela Periódica: Propriedades físicas e químicas (relação com a posição na Tabela Periódica), processos de obtenção dos metais e compostos e aplicações - Formação de Complexos.Relacionar a disciplina com disciplinas anteriores e posteriores da grade do curso.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -100,25 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1922320 - Sebastiao Ribeiro</t>
+    <t>A avaliação tem como requisito quantificar as competências adquiridas conforme objetivadas.Duas provas escritas (P1 e P2) e listas de exercícios de acompanhamento continuado. A partir das notas das listas de exercício será calculada a média, LE.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação tem como requisito quantificar as competências adquiridas conforme objetivadas.Duas provas escritas (P1 e P2) e listas de exercícios de acompanhamento continuado. A partir das notas das listas de exercício será calculada a média, LE.</t>
+    <t>NF = (P1 + P2 + LE) /3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NF = (P1 + P2 + LE) /3</t>
+    <t>Será realizada uma prova escrita valendo de zero a dez (NR) e a média final calculada pela equação: NF + NR</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Será realizada uma prova escrita valendo de zero a dez (NR) e a média final calculada pela equação: NF + NR</t>
+    <t>LEE, J. D. “Química Inorgânica não tão Concisa”, Editora Edgard Blücher, 1999. - SHRIVER, D. F.; ATKINS, P. W. “Química Inorgânica”, Editora Bookman, 4ª edição, 2008. - QUAGLIANO, J. V.; VALLARINO, L. “Química”, Editora Guanabara Koogan, 1973. - BUCHEL, K. H.; MORETTO, H. H.; WODITSCH, P. “Industrial Inorganic Chemistry”, Editora Wiley-VCH, 2000. - RAYNER-CANHAM, G.; OVERTON, T. “Química Inorgânica Descritiva”, Editora: Gen-LTC, 5ª edição, 2015. - SOUZA, M.M.V.M. “Processos Inorgânicos”, Editora: Synergia, 1ª edição, 2012.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -481,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -606,44 +618,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -654,50 +669,71 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3" ht="120" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
